--- a/output/1Y_P70_KFSDIV.xlsx
+++ b/output/1Y_P70_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>12.8469</v>
       </c>
       <c r="C2" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D2" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>778.3979</v>
+        <v>776.8438</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>13.129</v>
       </c>
       <c r="C3" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D3" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E3" s="1">
-        <v>778.3979</v>
+        <v>776.8438</v>
       </c>
       <c r="F3" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="H3" s="1">
-        <v>10219.586</v>
+        <v>10178.7518</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10219.586</v>
+        <v>10178.7518</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.022</v>
+        <v>0.0179</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>12.716</v>
       </c>
       <c r="C4" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D4" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E4" s="1">
-        <v>1540.0705</v>
+        <v>1536.9937</v>
       </c>
       <c r="F4" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="H4" s="1">
-        <v>19583.5369</v>
+        <v>19505.3728</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19583.5369</v>
+        <v>19505.3728</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.9864</v>
+        <v>13.0124</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>210.1674</v>
+        <v>209.7478</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9789.8326</v>
+        <v>-9790.252200000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0315</v>
+        <v>-0.0334</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>12.4613</v>
       </c>
       <c r="C5" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D5" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E5" s="1">
-        <v>2326.4814</v>
+        <v>2321.8307</v>
       </c>
       <c r="F5" s="1">
-        <v>804.3584</v>
+        <v>802.7442</v>
       </c>
       <c r="H5" s="1">
-        <v>28990.9821</v>
+        <v>28875.2152</v>
       </c>
       <c r="I5" s="1">
-        <v>210.1674</v>
+        <v>209.7478</v>
       </c>
       <c r="J5" s="1">
-        <v>29201.1495</v>
+        <v>29084.963</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.895</v>
+        <v>12.9208</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10023.3519</v>
+        <v>-10023.3053</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0129</v>
+        <v>-0.0142</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>12.6545</v>
       </c>
       <c r="C6" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D6" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E6" s="1">
-        <v>3130.8398</v>
+        <v>3124.5749</v>
       </c>
       <c r="F6" s="1">
-        <v>792.0780999999999</v>
+        <v>790.4877</v>
       </c>
       <c r="H6" s="1">
-        <v>39619.2123</v>
+        <v>39460.8816</v>
       </c>
       <c r="I6" s="1">
-        <v>186.8155</v>
+        <v>186.4425</v>
       </c>
       <c r="J6" s="1">
-        <v>39806.0278</v>
+        <v>39647.3241</v>
       </c>
       <c r="K6" s="1">
-        <v>40023.3519</v>
+        <v>40023.3053</v>
       </c>
       <c r="L6" s="1">
-        <v>12.7836</v>
+        <v>12.8092</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10023.3519</v>
+        <v>-10023.3053</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0154</v>
+        <v>0.0144</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>12.2345</v>
       </c>
       <c r="C7" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D7" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E7" s="1">
-        <v>3922.9179</v>
+        <v>3915.0626</v>
       </c>
       <c r="F7" s="1">
-        <v>819.2694</v>
+        <v>817.6283</v>
       </c>
       <c r="H7" s="1">
-        <v>47994.9387</v>
+        <v>47802.9149</v>
       </c>
       <c r="I7" s="1">
-        <v>163.4636</v>
+        <v>163.1372</v>
       </c>
       <c r="J7" s="1">
-        <v>48158.4023</v>
+        <v>47966.0522</v>
       </c>
       <c r="K7" s="1">
-        <v>50046.7039</v>
+        <v>50046.6106</v>
       </c>
       <c r="L7" s="1">
-        <v>12.7575</v>
+        <v>12.7831</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>845.3267</v>
+        <v>843.6352000000001</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9178.0252</v>
+        <v>-9179.670099999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0331</v>
+        <v>-0.0339</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>12.1636</v>
       </c>
       <c r="C8" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D8" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E8" s="1">
-        <v>4742.1873</v>
+        <v>4732.6909</v>
       </c>
       <c r="F8" s="1">
-        <v>835.6276</v>
+        <v>833.9277</v>
       </c>
       <c r="H8" s="1">
-        <v>57682.0696</v>
+        <v>57451.5552</v>
       </c>
       <c r="I8" s="1">
-        <v>985.4384</v>
+        <v>983.4671</v>
       </c>
       <c r="J8" s="1">
-        <v>58667.508</v>
+        <v>58435.0223</v>
       </c>
       <c r="K8" s="1">
-        <v>60070.0558</v>
+        <v>60069.9159</v>
       </c>
       <c r="L8" s="1">
-        <v>12.6672</v>
+        <v>12.6925</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10164.2397</v>
+        <v>-10163.9112</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.008800000000000001</v>
+        <v>0.0081</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>11.8145</v>
       </c>
       <c r="C9" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D9" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E9" s="1">
-        <v>5577.8149</v>
+        <v>5566.6187</v>
       </c>
       <c r="F9" s="1">
-        <v>860.3191</v>
+        <v>858.569</v>
       </c>
       <c r="H9" s="1">
-        <v>65899.0941</v>
+        <v>65635.4442</v>
       </c>
       <c r="I9" s="1">
-        <v>821.1986000000001</v>
+        <v>819.5559</v>
       </c>
       <c r="J9" s="1">
-        <v>66720.2928</v>
+        <v>66455.0001</v>
       </c>
       <c r="K9" s="1">
-        <v>70234.29549999999</v>
+        <v>70233.82709999999</v>
       </c>
       <c r="L9" s="1">
-        <v>12.5917</v>
+        <v>12.617</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10164.2397</v>
+        <v>-10163.9112</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0284</v>
+        <v>-0.0289</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>11.2352</v>
       </c>
       <c r="C10" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D10" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E10" s="1">
-        <v>6438.134</v>
+        <v>6425.1876</v>
       </c>
       <c r="F10" s="1">
-        <v>904.6701</v>
+        <v>902.8407999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>72333.72289999999</v>
+        <v>72043.7016</v>
       </c>
       <c r="I10" s="1">
-        <v>656.9589</v>
+        <v>655.6446999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>72990.68180000001</v>
+        <v>72699.3463</v>
       </c>
       <c r="K10" s="1">
-        <v>80398.5353</v>
+        <v>80397.7383</v>
       </c>
       <c r="L10" s="1">
-        <v>12.4879</v>
+        <v>12.5129</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1506.01</v>
+        <v>1502.987</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8658.2297</v>
+        <v>-8660.9241</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0486</v>
+        <v>-0.0491</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>10.8241</v>
       </c>
       <c r="C11" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D11" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E11" s="1">
-        <v>7342.8041</v>
+        <v>7328.0285</v>
       </c>
       <c r="F11" s="1">
-        <v>985.4162</v>
+        <v>983.3214</v>
       </c>
       <c r="H11" s="1">
-        <v>79479.2454</v>
+        <v>79160.2948</v>
       </c>
       <c r="I11" s="1">
-        <v>1998.7292</v>
+        <v>1994.7206</v>
       </c>
       <c r="J11" s="1">
-        <v>81477.9746</v>
+        <v>81155.0154</v>
       </c>
       <c r="K11" s="1">
-        <v>90562.77499999999</v>
+        <v>90561.6495</v>
       </c>
       <c r="L11" s="1">
-        <v>12.3335</v>
+        <v>12.3583</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10666.2431</v>
+        <v>-10664.9069</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0182</v>
+        <v>-0.0187</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>11.2543</v>
       </c>
       <c r="C12" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D12" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E12" s="1">
-        <v>8328.2202</v>
+        <v>8311.3498</v>
       </c>
       <c r="F12" s="1">
-        <v>947.7482</v>
+        <v>945.7304</v>
       </c>
       <c r="H12" s="1">
-        <v>93728.28879999999</v>
+        <v>93351.4192</v>
       </c>
       <c r="I12" s="1">
-        <v>1332.4861</v>
+        <v>1329.8137</v>
       </c>
       <c r="J12" s="1">
-        <v>95060.7749</v>
+        <v>94681.2329</v>
       </c>
       <c r="K12" s="1">
-        <v>101229.0181</v>
+        <v>101226.5564</v>
       </c>
       <c r="L12" s="1">
-        <v>12.1549</v>
+        <v>12.1793</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10666.2431</v>
+        <v>-10664.9069</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0392</v>
+        <v>0.0387</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>10.5675</v>
       </c>
       <c r="C13" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D13" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E13" s="1">
-        <v>9275.968500000001</v>
+        <v>9257.0802</v>
       </c>
       <c r="F13" s="1">
-        <v>1009.3345</v>
+        <v>1007.197</v>
       </c>
       <c r="H13" s="1">
-        <v>98023.79670000001</v>
+        <v>97628.8708</v>
       </c>
       <c r="I13" s="1">
-        <v>666.2431</v>
+        <v>664.9069</v>
       </c>
       <c r="J13" s="1">
-        <v>98690.0398</v>
+        <v>98293.77770000001</v>
       </c>
       <c r="K13" s="1">
-        <v>111895.2611</v>
+        <v>111891.4632</v>
       </c>
       <c r="L13" s="1">
-        <v>12.0629</v>
+        <v>12.0871</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2248.6195</v>
+        <v>2244.0645</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8417.623600000001</v>
+        <v>-8420.8424</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0606</v>
+        <v>-0.061</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E14" s="1">
-        <v>10285.3029</v>
+        <v>10264.2772</v>
       </c>
       <c r="F14" s="1">
-        <v>-10285.3029</v>
+        <v>-10264.2772</v>
       </c>
       <c r="H14" s="1">
-        <v>102513.6144</v>
+        <v>102099.7919</v>
       </c>
       <c r="I14" s="1">
-        <v>2248.6195</v>
+        <v>2244.0645</v>
       </c>
       <c r="J14" s="1">
-        <v>104762.2339</v>
+        <v>104343.8564</v>
       </c>
       <c r="K14" s="1">
-        <v>122561.5042</v>
+        <v>122556.3701</v>
       </c>
       <c r="L14" s="1">
-        <v>11.9162</v>
+        <v>11.9401</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>102513.6144</v>
+        <v>102099.7919</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0361</v>
+        <v>-0.0365</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>12.8469</v>
       </c>
       <c r="C2" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D2" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>778.3979</v>
+        <v>776.8438</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>13.129</v>
       </c>
       <c r="C3" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D3" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E3" s="1">
-        <v>778.3979</v>
+        <v>776.8438</v>
       </c>
       <c r="F3" s="1">
-        <v>744.9474</v>
+        <v>749.5590999999999</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10219.586</v>
+        <v>10178.7518</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10219.586</v>
+        <v>10178.7518</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9780.414000000001</v>
+        <v>-9860.674999999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.022</v>
+        <v>0.0179</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>12.716</v>
       </c>
       <c r="C4" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D4" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E4" s="1">
-        <v>1523.3453</v>
+        <v>1526.403</v>
       </c>
       <c r="F4" s="1">
-        <v>803.6793</v>
+        <v>795.7717</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19370.8584</v>
+        <v>19370.9693</v>
       </c>
       <c r="I4" s="1">
-        <v>219.586</v>
+        <v>139.325</v>
       </c>
       <c r="J4" s="1">
-        <v>19590.4445</v>
+        <v>19510.2943</v>
       </c>
       <c r="K4" s="1">
-        <v>19780.414</v>
+        <v>19860.675</v>
       </c>
       <c r="L4" s="1">
-        <v>12.9849</v>
+        <v>13.0114</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>210.1674</v>
+        <v>209.7478</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10009.4186</v>
+        <v>-9929.5771</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0311</v>
+        <v>-0.0331</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>12.4613</v>
       </c>
       <c r="C5" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D5" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E5" s="1">
-        <v>2327.0246</v>
+        <v>2322.1746</v>
       </c>
       <c r="F5" s="1">
-        <v>819.3501</v>
+        <v>817.676</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>28997.7513</v>
+        <v>28879.4927</v>
       </c>
       <c r="I5" s="1">
-        <v>210.1674</v>
+        <v>209.7478</v>
       </c>
       <c r="J5" s="1">
-        <v>29207.9187</v>
+        <v>29089.2406</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.892</v>
+        <v>12.9189</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10210.1674</v>
+        <v>-10209.7478</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0129</v>
+        <v>-0.0143</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>12.6545</v>
       </c>
       <c r="C6" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D6" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E6" s="1">
-        <v>3146.3747</v>
+        <v>3139.8506</v>
       </c>
       <c r="F6" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>39815.7983</v>
+        <v>39653.8017</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39815.7983</v>
+        <v>39653.8017</v>
       </c>
       <c r="K6" s="1">
-        <v>40210.1674</v>
+        <v>40209.7478</v>
       </c>
       <c r="L6" s="1">
-        <v>12.7798</v>
+        <v>12.8063</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0155</v>
+        <v>0.0144</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>12.2345</v>
       </c>
       <c r="C7" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D7" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E7" s="1">
-        <v>3936.6074</v>
+        <v>3928.5004</v>
       </c>
       <c r="F7" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>48162.4232</v>
+        <v>47966.9898</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>48162.4232</v>
+        <v>47966.9898</v>
       </c>
       <c r="K7" s="1">
-        <v>50210.1674</v>
+        <v>50209.7478</v>
       </c>
       <c r="L7" s="1">
-        <v>12.7547</v>
+        <v>12.7809</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>849.5212</v>
+        <v>847.7597</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9150.478800000001</v>
+        <v>-9152.240299999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0332</v>
+        <v>-0.034</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>12.1636</v>
       </c>
       <c r="C8" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D8" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E8" s="1">
-        <v>4753.9681</v>
+        <v>4744.2276</v>
       </c>
       <c r="F8" s="1">
-        <v>891.9663</v>
+        <v>890.0361</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>57825.3669</v>
+        <v>57591.6023</v>
       </c>
       <c r="I8" s="1">
-        <v>849.5212</v>
+        <v>847.7597</v>
       </c>
       <c r="J8" s="1">
-        <v>58674.888</v>
+        <v>58439.362</v>
       </c>
       <c r="K8" s="1">
-        <v>60210.1674</v>
+        <v>60209.7478</v>
       </c>
       <c r="L8" s="1">
-        <v>12.6652</v>
+        <v>12.6912</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10849.5212</v>
+        <v>-10847.7597</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.008800000000000001</v>
+        <v>0.0081</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>11.8145</v>
       </c>
       <c r="C9" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D9" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E9" s="1">
-        <v>5645.9344</v>
+        <v>5634.2637</v>
       </c>
       <c r="F9" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>66703.89230000001</v>
+        <v>66433.03969999999</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>66703.89230000001</v>
+        <v>66433.03969999999</v>
       </c>
       <c r="K9" s="1">
-        <v>71059.68859999999</v>
+        <v>71057.50750000001</v>
       </c>
       <c r="L9" s="1">
-        <v>12.586</v>
+        <v>12.6117</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0287</v>
+        <v>-0.0293</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>11.2352</v>
       </c>
       <c r="C10" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D10" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E10" s="1">
-        <v>6492.352</v>
+        <v>6478.9867</v>
       </c>
       <c r="F10" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>72942.8728</v>
+        <v>72646.9342</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>72942.8728</v>
+        <v>72646.9342</v>
       </c>
       <c r="K10" s="1">
-        <v>81059.68859999999</v>
+        <v>81057.50750000001</v>
       </c>
       <c r="L10" s="1">
-        <v>12.4854</v>
+        <v>12.5108</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1524.4023</v>
+        <v>1521.2512</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8475.5977</v>
+        <v>-8478.748799999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.049</v>
+        <v>-0.0495</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>10.8241</v>
       </c>
       <c r="C11" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D11" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E11" s="1">
-        <v>7382.4039</v>
+        <v>7367.2676</v>
       </c>
       <c r="F11" s="1">
-        <v>1064.6984</v>
+        <v>1062.2777</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>79907.87760000001</v>
+        <v>79584.17170000001</v>
       </c>
       <c r="I11" s="1">
-        <v>1524.4023</v>
+        <v>1521.2512</v>
       </c>
       <c r="J11" s="1">
-        <v>81432.27989999999</v>
+        <v>81105.42290000001</v>
       </c>
       <c r="K11" s="1">
-        <v>91059.68859999999</v>
+        <v>91057.50750000001</v>
       </c>
       <c r="L11" s="1">
-        <v>12.3347</v>
+        <v>12.3597</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11524.4023</v>
+        <v>-11521.2512</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0182</v>
+        <v>-0.0187</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>11.2543</v>
       </c>
       <c r="C12" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D12" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E12" s="1">
-        <v>8447.1023</v>
+        <v>8429.5453</v>
       </c>
       <c r="F12" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>95066.2233</v>
+        <v>94678.96679999999</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>95066.2233</v>
+        <v>94678.96679999999</v>
       </c>
       <c r="K12" s="1">
-        <v>102584.0909</v>
+        <v>102578.7587</v>
       </c>
       <c r="L12" s="1">
-        <v>12.1443</v>
+        <v>12.169</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0397</v>
+        <v>0.0392</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>10.5675</v>
       </c>
       <c r="C13" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D13" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E13" s="1">
-        <v>9335.651599999999</v>
+        <v>9316.3138</v>
       </c>
       <c r="F13" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>98654.4978</v>
+        <v>98253.572</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>98654.4978</v>
+        <v>98253.572</v>
       </c>
       <c r="K13" s="1">
-        <v>112584.0909</v>
+        <v>112578.7587</v>
       </c>
       <c r="L13" s="1">
-        <v>12.0596</v>
+        <v>12.084</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2280.7176</v>
+        <v>2275.9772</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7719.2824</v>
+        <v>-7724.0228</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.061</v>
+        <v>-0.0614</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E14" s="1">
-        <v>10281.9402</v>
+        <v>10260.7168</v>
       </c>
       <c r="F14" s="1">
-        <v>-10281.9402</v>
+        <v>-10260.7168</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>102480.0981</v>
+        <v>102064.3762</v>
       </c>
       <c r="I14" s="1">
-        <v>2280.7176</v>
+        <v>2275.9772</v>
       </c>
       <c r="J14" s="1">
-        <v>104760.8157</v>
+        <v>104340.3534</v>
       </c>
       <c r="K14" s="1">
-        <v>122584.0909</v>
+        <v>122578.7587</v>
       </c>
       <c r="L14" s="1">
-        <v>11.9223</v>
+        <v>11.9464</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>102480.0981</v>
+        <v>102064.3762</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0358</v>
+        <v>-0.0361</v>
       </c>
     </row>
   </sheetData>
@@ -2154,7 +2154,7 @@
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
@@ -2224,16 +2224,16 @@
         <v>12.8469</v>
       </c>
       <c r="C2" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D2" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>778.3979</v>
+        <v>776.8438</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>13.129</v>
       </c>
       <c r="C3" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D3" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E3" s="1">
-        <v>778.3979</v>
+        <v>776.8438</v>
       </c>
       <c r="F3" s="1">
-        <v>748.7557</v>
+        <v>753.3751</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10219.586</v>
+        <v>10178.7518</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10219.586</v>
+        <v>10178.7518</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9830.414000000001</v>
+        <v>-9910.8758</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.022</v>
+        <v>0.0179</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>12.716</v>
       </c>
       <c r="C4" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D4" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E4" s="1">
-        <v>1527.1536</v>
+        <v>1530.219</v>
       </c>
       <c r="F4" s="1">
-        <v>799.7473</v>
+        <v>791.8317</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19419.2856</v>
+        <v>19419.3968</v>
       </c>
       <c r="I4" s="1">
-        <v>169.586</v>
+        <v>89.1242</v>
       </c>
       <c r="J4" s="1">
-        <v>19588.8716</v>
+        <v>19508.521</v>
       </c>
       <c r="K4" s="1">
-        <v>19830.414</v>
+        <v>19910.8758</v>
       </c>
       <c r="L4" s="1">
-        <v>12.9852</v>
+        <v>13.0118</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>210.1674</v>
+        <v>209.7478</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9959.418600000001</v>
+        <v>-9879.376399999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0312</v>
+        <v>-0.0332</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>12.4613</v>
       </c>
       <c r="C5" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D5" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E5" s="1">
-        <v>2326.9009</v>
+        <v>2322.0507</v>
       </c>
       <c r="F5" s="1">
-        <v>819.3501</v>
+        <v>817.676</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>28996.2099</v>
+        <v>28877.9515</v>
       </c>
       <c r="I5" s="1">
-        <v>210.1674</v>
+        <v>209.7478</v>
       </c>
       <c r="J5" s="1">
-        <v>29206.3774</v>
+        <v>29087.6993</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.8927</v>
+        <v>12.9196</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10210.1674</v>
+        <v>-10209.7478</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0129</v>
+        <v>-0.0143</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>12.6545</v>
       </c>
       <c r="C6" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D6" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E6" s="1">
-        <v>3146.251</v>
+        <v>3139.7267</v>
       </c>
       <c r="F6" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39814.2331</v>
+        <v>39652.2366</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39814.2331</v>
+        <v>39652.2366</v>
       </c>
       <c r="K6" s="1">
-        <v>40210.1674</v>
+        <v>40209.7478</v>
       </c>
       <c r="L6" s="1">
-        <v>12.7803</v>
+        <v>12.8068</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0155</v>
+        <v>0.0144</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>12.2345</v>
       </c>
       <c r="C7" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D7" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E7" s="1">
-        <v>3936.4837</v>
+        <v>3928.3765</v>
       </c>
       <c r="F7" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>48160.9099</v>
+        <v>47965.4766</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>48160.9099</v>
+        <v>47965.4766</v>
       </c>
       <c r="K7" s="1">
-        <v>50210.1674</v>
+        <v>50209.7478</v>
       </c>
       <c r="L7" s="1">
-        <v>12.7551</v>
+        <v>12.7813</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>849.4878</v>
+        <v>847.7261999999999</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9150.512199999999</v>
+        <v>-9152.273800000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0332</v>
+        <v>-0.034</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>12.1636</v>
       </c>
       <c r="C8" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D8" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E8" s="1">
-        <v>4753.8444</v>
+        <v>4744.1037</v>
       </c>
       <c r="F8" s="1">
-        <v>891.9635</v>
+        <v>890.0333000000001</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>57823.8623</v>
+        <v>57590.0979</v>
       </c>
       <c r="I8" s="1">
-        <v>849.4878</v>
+        <v>847.7261999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>58673.3501</v>
+        <v>58437.8241</v>
       </c>
       <c r="K8" s="1">
-        <v>60210.1674</v>
+        <v>60209.7478</v>
       </c>
       <c r="L8" s="1">
-        <v>12.6656</v>
+        <v>12.6915</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10849.4878</v>
+        <v>-10847.7262</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.008800000000000001</v>
+        <v>0.0081</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>11.8145</v>
       </c>
       <c r="C9" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D9" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E9" s="1">
-        <v>5645.808</v>
+        <v>5634.137</v>
       </c>
       <c r="F9" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>66702.3985</v>
+        <v>66431.54610000001</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>66702.3985</v>
+        <v>66431.54610000001</v>
       </c>
       <c r="K9" s="1">
-        <v>71059.65519999999</v>
+        <v>71057.474</v>
       </c>
       <c r="L9" s="1">
-        <v>12.5863</v>
+        <v>12.612</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0287</v>
+        <v>-0.0293</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>11.2352</v>
       </c>
       <c r="C10" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D10" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E10" s="1">
-        <v>6492.2255</v>
+        <v>6478.86</v>
       </c>
       <c r="F10" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>72941.4523</v>
+        <v>72645.51390000001</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>72941.4523</v>
+        <v>72645.51390000001</v>
       </c>
       <c r="K10" s="1">
-        <v>81059.65519999999</v>
+        <v>81057.474</v>
       </c>
       <c r="L10" s="1">
-        <v>12.4856</v>
+        <v>12.5111</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1524.3682</v>
+        <v>1521.217</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8475.631799999999</v>
+        <v>-8478.782999999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.049</v>
+        <v>-0.0495</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>10.8241</v>
       </c>
       <c r="C11" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D11" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E11" s="1">
-        <v>7382.2774</v>
+        <v>7367.1409</v>
       </c>
       <c r="F11" s="1">
-        <v>1064.6953</v>
+        <v>1062.2745</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>79906.50900000001</v>
+        <v>79582.8033</v>
       </c>
       <c r="I11" s="1">
-        <v>1524.3682</v>
+        <v>1521.217</v>
       </c>
       <c r="J11" s="1">
-        <v>81430.8772</v>
+        <v>81104.0203</v>
       </c>
       <c r="K11" s="1">
-        <v>91059.65519999999</v>
+        <v>91057.474</v>
       </c>
       <c r="L11" s="1">
-        <v>12.3349</v>
+        <v>12.3599</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11524.3682</v>
+        <v>-11521.217</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0182</v>
+        <v>-0.0187</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>11.2543</v>
       </c>
       <c r="C12" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D12" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E12" s="1">
-        <v>8446.9727</v>
+        <v>8429.415499999999</v>
       </c>
       <c r="F12" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>95064.7648</v>
+        <v>94677.5086</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>95064.7648</v>
+        <v>94677.5086</v>
       </c>
       <c r="K12" s="1">
-        <v>102584.0234</v>
+        <v>102578.691</v>
       </c>
       <c r="L12" s="1">
-        <v>12.1445</v>
+        <v>12.1691</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0397</v>
+        <v>0.0392</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>10.5675</v>
       </c>
       <c r="C13" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D13" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E13" s="1">
-        <v>9335.522000000001</v>
+        <v>9316.183999999999</v>
       </c>
       <c r="F13" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>98653.1284</v>
+        <v>98252.2028</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>98653.1284</v>
+        <v>98252.2028</v>
       </c>
       <c r="K13" s="1">
-        <v>112584.0234</v>
+        <v>112578.691</v>
       </c>
       <c r="L13" s="1">
-        <v>12.0597</v>
+        <v>12.0842</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2280.6826</v>
+        <v>2275.9422</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7719.3174</v>
+        <v>-7724.0578</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.061</v>
+        <v>-0.0614</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E14" s="1">
-        <v>10281.8106</v>
+        <v>10260.587</v>
       </c>
       <c r="F14" s="1">
-        <v>-10281.8106</v>
+        <v>-10260.587</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>102478.8065</v>
+        <v>102063.0848</v>
       </c>
       <c r="I14" s="1">
-        <v>2280.6826</v>
+        <v>2275.9422</v>
       </c>
       <c r="J14" s="1">
-        <v>104759.4891</v>
+        <v>104339.0269</v>
       </c>
       <c r="K14" s="1">
-        <v>122584.0234</v>
+        <v>122578.691</v>
       </c>
       <c r="L14" s="1">
-        <v>11.9224</v>
+        <v>11.9466</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>102478.8065</v>
+        <v>102063.0848</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0358</v>
+        <v>-0.0361</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>12.8469</v>
       </c>
       <c r="C2" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D2" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>778.3979</v>
+        <v>776.8438</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>13.129</v>
       </c>
       <c r="C3" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D3" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E3" s="1">
-        <v>778.3979</v>
+        <v>776.8438</v>
       </c>
       <c r="F3" s="1">
-        <v>752.5641000000001</v>
+        <v>757.1911</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10219.586</v>
+        <v>10178.7518</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10219.586</v>
+        <v>10178.7518</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9880.414000000001</v>
+        <v>-9961.076499999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.022</v>
+        <v>0.0179</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>12.716</v>
       </c>
       <c r="C4" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D4" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E4" s="1">
-        <v>1530.962</v>
+        <v>1534.035</v>
       </c>
       <c r="F4" s="1">
-        <v>795.8152</v>
+        <v>787.8918</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19467.7127</v>
+        <v>19467.8242</v>
       </c>
       <c r="I4" s="1">
-        <v>119.586</v>
+        <v>38.9235</v>
       </c>
       <c r="J4" s="1">
-        <v>19587.2987</v>
+        <v>19506.7477</v>
       </c>
       <c r="K4" s="1">
-        <v>19880.414</v>
+        <v>19961.0765</v>
       </c>
       <c r="L4" s="1">
-        <v>12.9856</v>
+        <v>13.0121</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>210.1674</v>
+        <v>209.7478</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9909.418600000001</v>
+        <v>-9829.1757</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0313</v>
+        <v>-0.0333</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>12.4613</v>
       </c>
       <c r="C5" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D5" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E5" s="1">
-        <v>2326.7772</v>
+        <v>2321.9268</v>
       </c>
       <c r="F5" s="1">
-        <v>819.3501</v>
+        <v>817.676</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>28994.6686</v>
+        <v>28876.4102</v>
       </c>
       <c r="I5" s="1">
-        <v>210.1674</v>
+        <v>209.7478</v>
       </c>
       <c r="J5" s="1">
-        <v>29204.836</v>
+        <v>29086.1581</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.8934</v>
+        <v>12.9203</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10210.1674</v>
+        <v>-10209.7478</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0129</v>
+        <v>-0.0143</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>12.6545</v>
       </c>
       <c r="C6" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D6" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E6" s="1">
-        <v>3146.1273</v>
+        <v>3139.6028</v>
       </c>
       <c r="F6" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>39812.6678</v>
+        <v>39650.6714</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39812.6678</v>
+        <v>39650.6714</v>
       </c>
       <c r="K6" s="1">
-        <v>40210.1674</v>
+        <v>40209.7478</v>
       </c>
       <c r="L6" s="1">
-        <v>12.7808</v>
+        <v>12.8073</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0155</v>
+        <v>0.0144</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>12.2345</v>
       </c>
       <c r="C7" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D7" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E7" s="1">
-        <v>3936.36</v>
+        <v>3928.2525</v>
       </c>
       <c r="F7" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>48159.3966</v>
+        <v>47963.9634</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>48159.3966</v>
+        <v>47963.9634</v>
       </c>
       <c r="K7" s="1">
-        <v>50210.1674</v>
+        <v>50209.7478</v>
       </c>
       <c r="L7" s="1">
-        <v>12.7555</v>
+        <v>12.7817</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>849.4544</v>
+        <v>847.6928</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9150.545599999999</v>
+        <v>-9152.307199999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0332</v>
+        <v>-0.034</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>12.1636</v>
       </c>
       <c r="C8" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D8" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E8" s="1">
-        <v>4753.7208</v>
+        <v>4743.9798</v>
       </c>
       <c r="F8" s="1">
-        <v>891.9607999999999</v>
+        <v>890.0306</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>57822.3578</v>
+        <v>57588.5934</v>
       </c>
       <c r="I8" s="1">
-        <v>849.4544</v>
+        <v>847.6928</v>
       </c>
       <c r="J8" s="1">
-        <v>58671.8122</v>
+        <v>58436.2862</v>
       </c>
       <c r="K8" s="1">
-        <v>60210.1674</v>
+        <v>60209.7478</v>
       </c>
       <c r="L8" s="1">
-        <v>12.6659</v>
+        <v>12.6918</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10849.4544</v>
+        <v>-10847.6928</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.008800000000000001</v>
+        <v>0.0081</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>11.8145</v>
       </c>
       <c r="C9" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D9" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E9" s="1">
-        <v>5645.6816</v>
+        <v>5634.0103</v>
       </c>
       <c r="F9" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>66700.9048</v>
+        <v>66430.05250000001</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>66700.9048</v>
+        <v>66430.05250000001</v>
       </c>
       <c r="K9" s="1">
-        <v>71059.62179999999</v>
+        <v>71057.4406</v>
       </c>
       <c r="L9" s="1">
-        <v>12.5865</v>
+        <v>12.6122</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0287</v>
+        <v>-0.0293</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>11.2352</v>
       </c>
       <c r="C10" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D10" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E10" s="1">
-        <v>6492.0991</v>
+        <v>6478.7334</v>
       </c>
       <c r="F10" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>72940.03170000001</v>
+        <v>72644.0935</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>72940.03170000001</v>
+        <v>72644.0935</v>
       </c>
       <c r="K10" s="1">
-        <v>81059.62179999999</v>
+        <v>81057.4406</v>
       </c>
       <c r="L10" s="1">
-        <v>12.4859</v>
+        <v>12.5113</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1524.334</v>
+        <v>1521.1828</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8475.665999999999</v>
+        <v>-8478.8172</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.049</v>
+        <v>-0.0495</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>10.8241</v>
       </c>
       <c r="C11" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D11" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E11" s="1">
-        <v>7382.151</v>
+        <v>7367.0143</v>
       </c>
       <c r="F11" s="1">
-        <v>1064.6921</v>
+        <v>1062.2714</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>79905.14049999999</v>
+        <v>79581.43489999999</v>
       </c>
       <c r="I11" s="1">
-        <v>1524.334</v>
+        <v>1521.1828</v>
       </c>
       <c r="J11" s="1">
-        <v>81429.4745</v>
+        <v>81102.6177</v>
       </c>
       <c r="K11" s="1">
-        <v>91059.62179999999</v>
+        <v>91057.4406</v>
       </c>
       <c r="L11" s="1">
-        <v>12.3351</v>
+        <v>12.3602</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11524.334</v>
+        <v>-11521.1828</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0182</v>
+        <v>-0.0187</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>11.2543</v>
       </c>
       <c r="C12" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D12" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E12" s="1">
-        <v>8446.8431</v>
+        <v>8429.285599999999</v>
       </c>
       <c r="F12" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>95063.3064</v>
+        <v>94676.0503</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>95063.3064</v>
+        <v>94676.0503</v>
       </c>
       <c r="K12" s="1">
-        <v>102583.9558</v>
+        <v>102578.6234</v>
       </c>
       <c r="L12" s="1">
-        <v>12.1447</v>
+        <v>12.1693</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0397</v>
+        <v>0.0392</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>10.5675</v>
       </c>
       <c r="C13" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D13" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E13" s="1">
-        <v>9335.392400000001</v>
+        <v>9316.0542</v>
       </c>
       <c r="F13" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>98651.7589</v>
+        <v>98250.8336</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>98651.7589</v>
+        <v>98250.8336</v>
       </c>
       <c r="K13" s="1">
-        <v>112583.9558</v>
+        <v>112578.6234</v>
       </c>
       <c r="L13" s="1">
-        <v>12.0599</v>
+        <v>12.0844</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2280.6476</v>
+        <v>2275.9071</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7719.3524</v>
+        <v>-7724.0929</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.061</v>
+        <v>-0.0614</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E14" s="1">
-        <v>10281.681</v>
+        <v>10260.4572</v>
       </c>
       <c r="F14" s="1">
-        <v>-10281.681</v>
+        <v>-10260.4572</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>102477.5148</v>
+        <v>102061.7933</v>
       </c>
       <c r="I14" s="1">
-        <v>2280.6476</v>
+        <v>2275.9071</v>
       </c>
       <c r="J14" s="1">
-        <v>104758.1625</v>
+        <v>104337.7005</v>
       </c>
       <c r="K14" s="1">
-        <v>122583.9558</v>
+        <v>122578.6234</v>
       </c>
       <c r="L14" s="1">
-        <v>11.9226</v>
+        <v>11.9467</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>102477.5148</v>
+        <v>102061.7933</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0358</v>
+        <v>-0.0361</v>
       </c>
     </row>
   </sheetData>
@@ -3689,7 +3689,7 @@
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
@@ -3760,16 +3760,16 @@
         <v>12.8469</v>
       </c>
       <c r="C2" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D2" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>778.3979</v>
+        <v>776.8438</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>13.129</v>
       </c>
       <c r="C3" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D3" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E3" s="1">
-        <v>778.3979</v>
+        <v>776.8438</v>
       </c>
       <c r="F3" s="1">
-        <v>756.3724999999999</v>
+        <v>761.0071</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10219.586</v>
+        <v>10178.7518</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10219.586</v>
+        <v>10178.7518</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9930.414000000001</v>
+        <v>-10011.2772</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.022</v>
+        <v>0.0179</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>12.716</v>
       </c>
       <c r="C4" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D4" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E4" s="1">
-        <v>1534.7704</v>
+        <v>1537.851</v>
       </c>
       <c r="F4" s="1">
-        <v>791.8831</v>
+        <v>783.9519</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19516.1398</v>
+        <v>19516.2516</v>
       </c>
       <c r="I4" s="1">
-        <v>69.586</v>
+        <v>-11.2772</v>
       </c>
       <c r="J4" s="1">
-        <v>19585.7259</v>
+        <v>19504.9744</v>
       </c>
       <c r="K4" s="1">
-        <v>19930.414</v>
+        <v>20011.2772</v>
       </c>
       <c r="L4" s="1">
-        <v>12.9859</v>
+        <v>13.0125</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>210.1674</v>
+        <v>209.7478</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9859.418600000001</v>
+        <v>-9778.975</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0313</v>
+        <v>-0.0334</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>12.4613</v>
       </c>
       <c r="C5" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D5" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E5" s="1">
-        <v>2326.6535</v>
+        <v>2321.8029</v>
       </c>
       <c r="F5" s="1">
-        <v>819.3501</v>
+        <v>817.676</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>28993.1272</v>
+        <v>28874.869</v>
       </c>
       <c r="I5" s="1">
-        <v>210.1674</v>
+        <v>209.7478</v>
       </c>
       <c r="J5" s="1">
-        <v>29203.2947</v>
+        <v>29084.6168</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.8941</v>
+        <v>12.921</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10210.1674</v>
+        <v>-10209.7478</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0129</v>
+        <v>-0.0142</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>12.6545</v>
       </c>
       <c r="C6" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D6" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E6" s="1">
-        <v>3146.0036</v>
+        <v>3139.4789</v>
       </c>
       <c r="F6" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>39811.1026</v>
+        <v>39649.1063</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39811.1026</v>
+        <v>39649.1063</v>
       </c>
       <c r="K6" s="1">
-        <v>40210.1674</v>
+        <v>40209.7478</v>
       </c>
       <c r="L6" s="1">
-        <v>12.7813</v>
+        <v>12.8078</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0155</v>
+        <v>0.0144</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>12.2345</v>
       </c>
       <c r="C7" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D7" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E7" s="1">
-        <v>3936.2363</v>
+        <v>3928.1286</v>
       </c>
       <c r="F7" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>48157.8833</v>
+        <v>47962.4502</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>48157.8833</v>
+        <v>47962.4502</v>
       </c>
       <c r="K7" s="1">
-        <v>50210.1674</v>
+        <v>50209.7478</v>
       </c>
       <c r="L7" s="1">
-        <v>12.7559</v>
+        <v>12.7821</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>849.421</v>
+        <v>847.6593</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9150.579</v>
+        <v>-9152.340700000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0332</v>
+        <v>-0.034</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>12.1636</v>
       </c>
       <c r="C8" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D8" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E8" s="1">
-        <v>4753.5971</v>
+        <v>4743.8558</v>
       </c>
       <c r="F8" s="1">
-        <v>891.9580999999999</v>
+        <v>890.0278</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>57820.8533</v>
+        <v>57587.089</v>
       </c>
       <c r="I8" s="1">
-        <v>849.421</v>
+        <v>847.6593</v>
       </c>
       <c r="J8" s="1">
-        <v>58670.2743</v>
+        <v>58434.7483</v>
       </c>
       <c r="K8" s="1">
-        <v>60210.1674</v>
+        <v>60209.7478</v>
       </c>
       <c r="L8" s="1">
-        <v>12.6662</v>
+        <v>12.6922</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10849.421</v>
+        <v>-10847.6593</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.008800000000000001</v>
+        <v>0.0081</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>11.8145</v>
       </c>
       <c r="C9" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D9" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E9" s="1">
-        <v>5645.5551</v>
+        <v>5633.8837</v>
       </c>
       <c r="F9" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>66699.41099999999</v>
+        <v>66428.5589</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>66699.41099999999</v>
+        <v>66428.5589</v>
       </c>
       <c r="K9" s="1">
-        <v>71059.58839999999</v>
+        <v>71057.4071</v>
       </c>
       <c r="L9" s="1">
-        <v>12.5868</v>
+        <v>12.6125</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0287</v>
+        <v>-0.0293</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>11.2352</v>
       </c>
       <c r="C10" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D10" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E10" s="1">
-        <v>6491.9727</v>
+        <v>6478.6067</v>
       </c>
       <c r="F10" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>72938.6112</v>
+        <v>72642.6731</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>72938.6112</v>
+        <v>72642.6731</v>
       </c>
       <c r="K10" s="1">
-        <v>81059.58839999999</v>
+        <v>81057.4071</v>
       </c>
       <c r="L10" s="1">
-        <v>12.4861</v>
+        <v>12.5115</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1524.2999</v>
+        <v>1521.1486</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8475.7001</v>
+        <v>-8478.8514</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.049</v>
+        <v>-0.0495</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>10.8241</v>
       </c>
       <c r="C11" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D11" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E11" s="1">
-        <v>7382.0245</v>
+        <v>7366.8876</v>
       </c>
       <c r="F11" s="1">
-        <v>1064.689</v>
+        <v>1062.2682</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>79903.77190000001</v>
+        <v>79580.0665</v>
       </c>
       <c r="I11" s="1">
-        <v>1524.2999</v>
+        <v>1521.1486</v>
       </c>
       <c r="J11" s="1">
-        <v>81428.07180000001</v>
+        <v>81101.2151</v>
       </c>
       <c r="K11" s="1">
-        <v>91059.58839999999</v>
+        <v>91057.4071</v>
       </c>
       <c r="L11" s="1">
-        <v>12.3353</v>
+        <v>12.3604</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11524.2999</v>
+        <v>-11521.1486</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0182</v>
+        <v>-0.0187</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>11.2543</v>
       </c>
       <c r="C12" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D12" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E12" s="1">
-        <v>8446.7135</v>
+        <v>8429.1558</v>
       </c>
       <c r="F12" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>95061.84789999999</v>
+        <v>94674.59209999999</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>95061.84789999999</v>
+        <v>94674.59209999999</v>
       </c>
       <c r="K12" s="1">
-        <v>102583.8883</v>
+        <v>102578.5557</v>
       </c>
       <c r="L12" s="1">
-        <v>12.1448</v>
+        <v>12.1695</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0397</v>
+        <v>0.0392</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>10.5675</v>
       </c>
       <c r="C13" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D13" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E13" s="1">
-        <v>9335.2628</v>
+        <v>9315.924300000001</v>
       </c>
       <c r="F13" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>98650.3895</v>
+        <v>98249.46430000001</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>98650.3895</v>
+        <v>98249.46430000001</v>
       </c>
       <c r="K13" s="1">
-        <v>112583.8883</v>
+        <v>112578.5557</v>
       </c>
       <c r="L13" s="1">
-        <v>12.0601</v>
+        <v>12.0845</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2280.6126</v>
+        <v>2275.8721</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7719.3874</v>
+        <v>-7724.1279</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.061</v>
+        <v>-0.0614</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E14" s="1">
-        <v>10281.5514</v>
+        <v>10260.3273</v>
       </c>
       <c r="F14" s="1">
-        <v>-10281.5514</v>
+        <v>-10260.3273</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>102476.2232</v>
+        <v>102060.5019</v>
       </c>
       <c r="I14" s="1">
-        <v>2280.6126</v>
+        <v>2275.8721</v>
       </c>
       <c r="J14" s="1">
-        <v>104756.8358</v>
+        <v>104336.374</v>
       </c>
       <c r="K14" s="1">
-        <v>122583.8883</v>
+        <v>122578.5557</v>
       </c>
       <c r="L14" s="1">
-        <v>11.9227</v>
+        <v>11.9468</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>102476.2232</v>
+        <v>102060.5019</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0358</v>
+        <v>-0.0361</v>
       </c>
     </row>
   </sheetData>
@@ -4452,7 +4452,7 @@
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>11.9162</v>
+        <v>11.9401</v>
       </c>
       <c r="D3" s="1">
-        <v>11.9223</v>
+        <v>11.9464</v>
       </c>
       <c r="E3" s="1">
-        <v>11.9224</v>
+        <v>11.9466</v>
       </c>
       <c r="F3" s="1">
-        <v>11.9226</v>
+        <v>11.9467</v>
       </c>
       <c r="G3" s="1">
-        <v>11.9227</v>
+        <v>11.9468</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.2454</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1841</v>
+        <v>-0.1967</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.184</v>
+        <v>-0.1967</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1841</v>
+        <v>-0.1968</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1842</v>
+        <v>-0.1969</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1843</v>
+        <v>-0.197</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1064</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1012</v>
+        <v>0.0999</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1018</v>
+        <v>0.1005</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1018</v>
+        <v>0.1005</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1018</v>
+        <v>0.1005</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1018</v>
+        <v>0.1005</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-2.497</v>
       </c>
       <c r="C6" s="4">
-        <v>-2.0205</v>
+        <v>-2.172</v>
       </c>
       <c r="D6" s="4">
-        <v>-2.0074</v>
+        <v>-2.1596</v>
       </c>
       <c r="E6" s="4">
-        <v>-2.0079</v>
+        <v>-2.1601</v>
       </c>
       <c r="F6" s="4">
-        <v>-2.0084</v>
+        <v>-2.1606</v>
       </c>
       <c r="G6" s="4">
-        <v>-2.009</v>
+        <v>-2.1611</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.2283</v>
+        <v>-0.2343</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.2271</v>
+        <v>-0.2331</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.2271</v>
+        <v>-0.2331</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.2271</v>
+        <v>-0.2331</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.2271</v>
+        <v>-0.2331</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>4810.1237</v>
+        <v>4800.4346</v>
       </c>
       <c r="D8" s="1">
-        <v>4864.8085</v>
+        <v>4854.7359</v>
       </c>
       <c r="E8" s="1">
-        <v>4864.706</v>
+        <v>4854.6332</v>
       </c>
       <c r="F8" s="1">
-        <v>4864.6035</v>
+        <v>4854.5305</v>
       </c>
       <c r="G8" s="1">
-        <v>4864.5009</v>
+        <v>4854.4278</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P70_KFSDIV.xlsx
+++ b/output/1Y_P70_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>5769.2065</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8537</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.8532999999999999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.8532</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.8532</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.8532</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
